--- a/pred_ohlcv/54_21/2020-01-24 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ADA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-564332.9564787899</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-564693.0023152999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-564693.0023152999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-620334.0065152999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-610045.7665152999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-610045.7665152999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-610045.7665152999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-611155.3205152999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-611155.3205152999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-628676.0341152999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-628676.0341152999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-632266.4148152999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-636016.4148152999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-617508.7217152999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-625184.2247152999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-625184.2247152999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-626044.5106152999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-626044.5106152999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-607964.5106152999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-609660.1958153</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-610023.2687153</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-609385.9955153</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-609123.6751153</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-609123.6751153</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-609159.4298153</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-785719.2911153</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-804838.9651153</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-805328.9651153</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-806757.8957153</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-792196.18384414</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-792298.53204414</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-811960.3098441401</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-789150.0456441401</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-789150.0456441401</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1748105.028632191</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1748105.028632191</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1747947.765019061</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1765270.128819061</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1804066.337419061</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1804066.337419061</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1817835.528119061</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-855078.6840190612</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-855088.6840190612</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-855041.8579190612</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-855041.8579190612</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-799181.7288029811</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-822683.7918029811</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-822683.7918029811</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-822683.7918029811</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-819697.6800029811</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-820674.105402981</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-821650.877827571</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-841195.798427571</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-883280.104627571</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-883176.104627571</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-772814.3309275709</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-772834.3309275709</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-773950.713927571</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-773910.022727571</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-775745.981727571</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-774142.745116091</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-894442.745116091</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-894442.745116091</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-925309.905216091</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-925309.905216091</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1960438.140311671</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1952467.901611671</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1960762.840511671</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ADA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-564332.9564787899</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-564693.0023152999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-564693.0023152999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-620304.0065152999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-625184.2247152999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-609233.4561153</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-609660.1958153</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-610023.2687153</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-609385.9955153</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-609123.6751153</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-609123.6751153</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-609159.4298153</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-785719.2911153</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-796838.9651153</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-807205.4336153</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-792234.58954414</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-792196.18384414</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-792196.18384414</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-792298.53204414</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1748105.028632191</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1748105.028632191</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1747947.765019061</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1765270.128819061</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1804066.337419061</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1804066.337419061</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1817835.528119061</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-855078.6840190612</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-855088.6840190612</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-855041.8579190612</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-855041.8579190612</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-799181.7288029811</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-822683.7918029811</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-822683.7918029811</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-822683.7918029811</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-819697.6800029811</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-820674.105402981</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-821650.877827571</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-841195.798427571</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-883280.104627571</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-883176.104627571</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-772814.3309275709</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-772834.3309275709</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-773950.713927571</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-773910.022727571</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-775745.981727571</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-774142.745116091</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-894442.745116091</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-894442.745116091</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-925309.905216091</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-925309.905216091</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1960438.140311671</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1952467.901611671</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1960762.840511671</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1967126.400611671</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
